--- a/database/industries/biscuit/ghesalem/cashflow/quarterly.xlsx
+++ b/database/industries/biscuit/ghesalem/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CD05F-82F5-49A6-B67F-2510D32CDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF3F24-3980-44C3-8705-F5640B074BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-25 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-30 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -726,18 +726,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +752,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +768,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,7 +784,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +798,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +814,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,7 +830,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +844,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -915,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,7 +930,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -945,115 +946,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>83076</v>
+        <v>-40383</v>
       </c>
       <c r="E12" s="15">
-        <v>-40383</v>
+        <v>71773</v>
       </c>
       <c r="F12" s="15">
-        <v>71773</v>
+        <v>68589</v>
       </c>
       <c r="G12" s="15">
-        <v>68589</v>
+        <v>27122</v>
       </c>
       <c r="H12" s="15">
-        <v>27122</v>
+        <v>318401</v>
       </c>
       <c r="I12" s="15">
-        <v>318401</v>
+        <v>-261477</v>
       </c>
       <c r="J12" s="15">
-        <v>-261477</v>
+        <v>91986</v>
       </c>
       <c r="K12" s="15">
-        <v>91986</v>
+        <v>591128</v>
       </c>
       <c r="L12" s="15">
-        <v>591128</v>
+        <v>-852487</v>
       </c>
       <c r="M12" s="15">
-        <v>-852487</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>973453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-14500</v>
+        <v>-21145</v>
       </c>
       <c r="E13" s="11">
-        <v>-21145</v>
+        <v>-4229</v>
       </c>
       <c r="F13" s="11">
-        <v>-4229</v>
+        <v>-22363</v>
       </c>
       <c r="G13" s="11">
-        <v>-22363</v>
+        <v>-32475</v>
       </c>
       <c r="H13" s="11">
-        <v>-32475</v>
+        <v>-29330</v>
       </c>
       <c r="I13" s="11">
-        <v>-29330</v>
+        <v>-30190</v>
       </c>
       <c r="J13" s="11">
-        <v>-30190</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>-60432</v>
       </c>
       <c r="L13" s="11">
-        <v>-60432</v>
+        <v>-51799</v>
       </c>
       <c r="M13" s="11">
-        <v>-51799</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-17266</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>68576</v>
+        <v>-61528</v>
       </c>
       <c r="E14" s="17">
-        <v>-61528</v>
+        <v>67544</v>
       </c>
       <c r="F14" s="17">
-        <v>67544</v>
+        <v>46226</v>
       </c>
       <c r="G14" s="17">
-        <v>46226</v>
+        <v>-5353</v>
       </c>
       <c r="H14" s="17">
-        <v>-5353</v>
+        <v>289071</v>
       </c>
       <c r="I14" s="17">
-        <v>289071</v>
+        <v>-291667</v>
       </c>
       <c r="J14" s="17">
-        <v>-291667</v>
+        <v>91986</v>
       </c>
       <c r="K14" s="17">
-        <v>91986</v>
+        <v>530696</v>
       </c>
       <c r="L14" s="17">
-        <v>530696</v>
+        <v>-904286</v>
       </c>
       <c r="M14" s="17">
-        <v>-904286</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>956187</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1093,55 +1094,55 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="K16" s="15">
-        <v>15030</v>
+        <v>30</v>
       </c>
       <c r="L16" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-10801</v>
+        <v>-19653</v>
       </c>
       <c r="E17" s="11">
-        <v>-19653</v>
+        <v>-21685</v>
       </c>
       <c r="F17" s="11">
-        <v>-21685</v>
+        <v>-15458</v>
       </c>
       <c r="G17" s="11">
-        <v>-15458</v>
+        <v>-24414</v>
       </c>
       <c r="H17" s="11">
-        <v>-24414</v>
+        <v>-8201</v>
       </c>
       <c r="I17" s="11">
-        <v>-8201</v>
+        <v>-146759</v>
       </c>
       <c r="J17" s="11">
-        <v>-146759</v>
+        <v>-13231</v>
       </c>
       <c r="K17" s="11">
-        <v>-13231</v>
+        <v>-43893</v>
       </c>
       <c r="L17" s="11">
-        <v>-43893</v>
+        <v>-40942</v>
       </c>
       <c r="M17" s="11">
-        <v>-40942</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-59696</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
@@ -1609,115 +1610,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F31" s="11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G31" s="11">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H31" s="11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I31" s="11">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="J31" s="11">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L31" s="11">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="M31" s="11">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-10766</v>
+        <v>-19644</v>
       </c>
       <c r="E32" s="17">
-        <v>-19644</v>
+        <v>-21663</v>
       </c>
       <c r="F32" s="17">
-        <v>-21663</v>
+        <v>-15452</v>
       </c>
       <c r="G32" s="17">
-        <v>-15452</v>
+        <v>-24390</v>
       </c>
       <c r="H32" s="17">
-        <v>-24390</v>
+        <v>-8188</v>
       </c>
       <c r="I32" s="17">
-        <v>-8188</v>
+        <v>-146617</v>
       </c>
       <c r="J32" s="17">
-        <v>-146617</v>
+        <v>1799</v>
       </c>
       <c r="K32" s="17">
-        <v>1799</v>
+        <v>-43789</v>
       </c>
       <c r="L32" s="17">
-        <v>-43789</v>
+        <v>-40620</v>
       </c>
       <c r="M32" s="17">
-        <v>-40620</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-58596</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>57810</v>
+        <v>-81172</v>
       </c>
       <c r="E33" s="19">
-        <v>-81172</v>
+        <v>45881</v>
       </c>
       <c r="F33" s="19">
-        <v>45881</v>
+        <v>30774</v>
       </c>
       <c r="G33" s="19">
-        <v>30774</v>
+        <v>-29743</v>
       </c>
       <c r="H33" s="19">
-        <v>-29743</v>
+        <v>280883</v>
       </c>
       <c r="I33" s="19">
-        <v>280883</v>
+        <v>-438284</v>
       </c>
       <c r="J33" s="19">
-        <v>-438284</v>
+        <v>93785</v>
       </c>
       <c r="K33" s="19">
-        <v>93785</v>
+        <v>486907</v>
       </c>
       <c r="L33" s="19">
-        <v>486907</v>
+        <v>-944906</v>
       </c>
       <c r="M33" s="19">
-        <v>-944906</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>897591</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1733,13 +1734,13 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1769,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1789,8 +1790,8 @@
       <c r="H36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
+      <c r="I36" s="11">
+        <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>52</v>
@@ -1801,11 +1802,11 @@
       <c r="L36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1877,13 +1878,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>86520</v>
+        <v>0</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -1898,94 +1899,94 @@
         <v>0</v>
       </c>
       <c r="I39" s="15">
-        <v>0</v>
+        <v>499993</v>
       </c>
       <c r="J39" s="15">
-        <v>499993</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>176225</v>
       </c>
       <c r="L39" s="15">
-        <v>176225</v>
+        <v>900000</v>
       </c>
       <c r="M39" s="15">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-3452</v>
+        <v>-6877</v>
       </c>
       <c r="E40" s="11">
-        <v>-6877</v>
+        <v>-9915</v>
       </c>
       <c r="F40" s="11">
-        <v>-9915</v>
+        <v>-10215</v>
       </c>
       <c r="G40" s="11">
-        <v>-10215</v>
+        <v>-10525</v>
       </c>
       <c r="H40" s="11">
-        <v>-10525</v>
+        <v>-10843</v>
       </c>
       <c r="I40" s="11">
-        <v>-10843</v>
+        <v>-11172</v>
       </c>
       <c r="J40" s="11">
-        <v>-11172</v>
+        <v>-128797</v>
       </c>
       <c r="K40" s="11">
-        <v>-128797</v>
+        <v>-161091</v>
       </c>
       <c r="L40" s="11">
-        <v>-161091</v>
+        <v>-243520</v>
       </c>
       <c r="M40" s="11">
-        <v>-243520</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-391735</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-295</v>
+        <v>-1339</v>
       </c>
       <c r="E41" s="15">
-        <v>-1339</v>
+        <v>-2411</v>
       </c>
       <c r="F41" s="15">
-        <v>-2411</v>
+        <v>-2110</v>
       </c>
       <c r="G41" s="15">
-        <v>-2110</v>
+        <v>-1800</v>
       </c>
       <c r="H41" s="15">
-        <v>-1800</v>
+        <v>-1482</v>
       </c>
       <c r="I41" s="15">
-        <v>-1482</v>
+        <v>-1153</v>
       </c>
       <c r="J41" s="15">
-        <v>-1153</v>
+        <v>-20438</v>
       </c>
       <c r="K41" s="15">
-        <v>-20438</v>
+        <v>-20311</v>
       </c>
       <c r="L41" s="15">
-        <v>-20311</v>
+        <v>-27835</v>
       </c>
       <c r="M41" s="15">
-        <v>-27835</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-39682</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2273,223 +2274,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="E50" s="11">
-        <v>-7</v>
+        <v>-52422</v>
       </c>
       <c r="F50" s="11">
-        <v>-52422</v>
+        <v>-35</v>
       </c>
       <c r="G50" s="11">
-        <v>-35</v>
+        <v>-13</v>
       </c>
       <c r="H50" s="11">
-        <v>-13</v>
+        <v>-95993</v>
       </c>
       <c r="I50" s="11">
-        <v>-95993</v>
+        <v>-124663</v>
       </c>
       <c r="J50" s="11">
-        <v>-124663</v>
+        <v>-95</v>
       </c>
       <c r="K50" s="11">
-        <v>-95</v>
+        <v>-1916</v>
       </c>
       <c r="L50" s="11">
-        <v>-1916</v>
+        <v>-191374</v>
       </c>
       <c r="M50" s="11">
-        <v>-191374</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-252702</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>83316</v>
+        <v>-8223</v>
       </c>
       <c r="E51" s="17">
-        <v>-8223</v>
+        <v>-64748</v>
       </c>
       <c r="F51" s="17">
-        <v>-64748</v>
+        <v>-12360</v>
       </c>
       <c r="G51" s="17">
-        <v>-12360</v>
+        <v>-12338</v>
       </c>
       <c r="H51" s="17">
-        <v>-12338</v>
+        <v>-108318</v>
       </c>
       <c r="I51" s="17">
-        <v>-108318</v>
+        <v>363005</v>
       </c>
       <c r="J51" s="17">
-        <v>363005</v>
+        <v>-149330</v>
       </c>
       <c r="K51" s="17">
-        <v>-149330</v>
+        <v>-7093</v>
       </c>
       <c r="L51" s="17">
-        <v>-7093</v>
+        <v>437271</v>
       </c>
       <c r="M51" s="17">
-        <v>437271</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-684119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>141126</v>
+        <v>-89395</v>
       </c>
       <c r="E52" s="19">
-        <v>-89395</v>
+        <v>-18867</v>
       </c>
       <c r="F52" s="19">
-        <v>-18867</v>
+        <v>18414</v>
       </c>
       <c r="G52" s="19">
-        <v>18414</v>
+        <v>-42081</v>
       </c>
       <c r="H52" s="19">
-        <v>-42081</v>
+        <v>172565</v>
       </c>
       <c r="I52" s="19">
-        <v>172565</v>
+        <v>-75279</v>
       </c>
       <c r="J52" s="19">
-        <v>-75279</v>
+        <v>-55545</v>
       </c>
       <c r="K52" s="19">
-        <v>-55545</v>
+        <v>479814</v>
       </c>
       <c r="L52" s="19">
-        <v>479814</v>
+        <v>-507635</v>
       </c>
       <c r="M52" s="19">
-        <v>-507635</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>213472</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>17685</v>
+        <v>158815</v>
       </c>
       <c r="E53" s="15">
-        <v>158815</v>
+        <v>69417</v>
       </c>
       <c r="F53" s="15">
-        <v>69417</v>
+        <v>50630</v>
       </c>
       <c r="G53" s="15">
-        <v>50630</v>
+        <v>69044</v>
       </c>
       <c r="H53" s="15">
-        <v>69044</v>
+        <v>27220</v>
       </c>
       <c r="I53" s="15">
-        <v>27220</v>
+        <v>199788</v>
       </c>
       <c r="J53" s="15">
-        <v>199788</v>
+        <v>124711</v>
       </c>
       <c r="K53" s="15">
-        <v>124711</v>
+        <v>69166</v>
       </c>
       <c r="L53" s="15">
-        <v>69166</v>
+        <v>548992</v>
       </c>
       <c r="M53" s="15">
-        <v>548992</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>41389</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E54" s="11">
-        <v>-3</v>
+        <v>80</v>
       </c>
       <c r="F54" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="H54" s="11">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="I54" s="11">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="J54" s="11">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L54" s="11">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M54" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>158815</v>
+        <v>69417</v>
       </c>
       <c r="E55" s="17">
-        <v>69417</v>
+        <v>50630</v>
       </c>
       <c r="F55" s="17">
-        <v>50630</v>
+        <v>69044</v>
       </c>
       <c r="G55" s="17">
-        <v>69044</v>
+        <v>27220</v>
       </c>
       <c r="H55" s="17">
-        <v>27220</v>
+        <v>199788</v>
       </c>
       <c r="I55" s="17">
-        <v>199788</v>
+        <v>124711</v>
       </c>
       <c r="J55" s="17">
-        <v>124711</v>
+        <v>69166</v>
       </c>
       <c r="K55" s="17">
-        <v>69166</v>
+        <v>548992</v>
       </c>
       <c r="L55" s="17">
-        <v>548992</v>
+        <v>41389</v>
       </c>
       <c r="M55" s="17">
-        <v>41389</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255126</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/biscuit/ghesalem/cashflow/quarterly.xlsx
+++ b/database/industries/biscuit/ghesalem/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\biscuit\ghesalem\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF3F24-3980-44C3-8705-F5640B074BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04480D6-9DF8-41DC-9B9F-7F9F88E361F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1399-04-11 (7)</t>
+  </si>
+  <si>
+    <t>1399-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-28 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-27 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-09 (8)</t>
+  </si>
+  <si>
+    <t>1400-04-16 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-25 (4)</t>
+  </si>
+  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -85,19 +139,25 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-28</t>
-  </si>
-  <si>
-    <t>1401-08-25 (2)</t>
+    <t>1402-04-07 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-28 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-29 (4)</t>
   </si>
   <si>
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-30 (2)</t>
+    <t>1402-08-29 (6)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-08-29 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,9 +796,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>14414</v>
+      </c>
+      <c r="E12" s="15">
+        <v>98203</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-21717</v>
+      </c>
+      <c r="G12" s="15">
+        <v>42369</v>
+      </c>
+      <c r="H12" s="15">
+        <v>95062</v>
+      </c>
+      <c r="I12" s="15">
+        <v>100236</v>
+      </c>
+      <c r="J12" s="15">
+        <v>16177</v>
+      </c>
+      <c r="K12" s="15">
+        <v>83076</v>
+      </c>
+      <c r="L12" s="15">
         <v>-40383</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>71773</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>68589</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>27122</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>318401</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>-261477</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>91986</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>591128</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>-852487</v>
       </c>
-      <c r="M12" s="15">
-        <v>973453</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>973848</v>
+      </c>
+      <c r="V12" s="15">
+        <v>909914</v>
+      </c>
+      <c r="W12" s="15">
+        <v>112184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-5097</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-5097</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-1994</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-13301</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-7480</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-8890</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-14500</v>
+      </c>
+      <c r="L13" s="11">
         <v>-21145</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>-4229</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>-22363</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>-32475</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-29330</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-30190</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>-60432</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>-51799</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>-17266</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-164513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>9317</v>
+      </c>
+      <c r="E14" s="17">
+        <v>93106</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-23711</v>
+      </c>
+      <c r="G14" s="17">
+        <v>29068</v>
+      </c>
+      <c r="H14" s="17">
+        <v>87582</v>
+      </c>
+      <c r="I14" s="17">
+        <v>91346</v>
+      </c>
+      <c r="J14" s="17">
+        <v>16177</v>
+      </c>
+      <c r="K14" s="17">
+        <v>68576</v>
+      </c>
+      <c r="L14" s="17">
         <v>-61528</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>67544</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>46226</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>-5353</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>289071</v>
       </c>
-      <c r="I14" s="17">
+      <c r="Q14" s="17">
         <v>-291667</v>
       </c>
-      <c r="J14" s="17">
+      <c r="R14" s="17">
         <v>91986</v>
       </c>
-      <c r="K14" s="17">
+      <c r="S14" s="17">
         <v>530696</v>
       </c>
-      <c r="L14" s="17">
+      <c r="T14" s="17">
         <v>-904286</v>
       </c>
-      <c r="M14" s="17">
-        <v>956187</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="17">
+        <v>956582</v>
+      </c>
+      <c r="V14" s="17">
+        <v>909914</v>
+      </c>
+      <c r="W14" s="17">
+        <v>-52329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1069,10 +1374,20 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -1094,57 +1409,117 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
         <v>15030</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>30</v>
       </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
         <v>915</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-9378</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-6965</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-4592</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-16101</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-5684</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-8184</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-4814</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-10801</v>
+      </c>
+      <c r="L17" s="11">
         <v>-19653</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-21685</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-15458</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-24414</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>-8201</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>-146759</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>-13231</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>-43893</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>-40942</v>
       </c>
-      <c r="M17" s="11">
-        <v>-59696</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="11">
+        <v>-60091</v>
+      </c>
+      <c r="V17" s="11">
+        <v>-120780</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-90203</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1177,10 +1552,40 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1213,10 +1618,40 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1249,10 +1684,40 @@
       <c r="M20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1285,10 +1750,40 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1321,10 +1816,40 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1357,10 +1882,40 @@
       <c r="M23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1393,10 +1948,40 @@
       <c r="M24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1429,10 +2014,40 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1465,10 +2080,40 @@
       <c r="M26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1501,10 +2146,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1537,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1573,10 +2278,40 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1609,118 +2344,238 @@
       <c r="M30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4</v>
+      </c>
+      <c r="H31" s="11">
+        <v>3</v>
+      </c>
+      <c r="I31" s="11">
+        <v>6</v>
+      </c>
+      <c r="J31" s="11">
+        <v>11</v>
+      </c>
+      <c r="K31" s="11">
+        <v>35</v>
+      </c>
+      <c r="L31" s="11">
         <v>9</v>
       </c>
-      <c r="E31" s="11">
+      <c r="M31" s="11">
         <v>22</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>6</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>24</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>13</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>142</v>
       </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
         <v>74</v>
       </c>
-      <c r="L31" s="11">
+      <c r="T31" s="11">
         <v>322</v>
       </c>
-      <c r="M31" s="11">
+      <c r="U31" s="11">
         <v>185</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>59</v>
+      </c>
+      <c r="W31" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-9377</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-6964</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-4592</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-16097</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-5681</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-8178</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-4803</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-10766</v>
+      </c>
+      <c r="L32" s="17">
         <v>-19644</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>-21663</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-15452</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>-24390</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>-8188</v>
       </c>
-      <c r="I32" s="17">
+      <c r="Q32" s="17">
         <v>-146617</v>
       </c>
-      <c r="J32" s="17">
+      <c r="R32" s="17">
         <v>1799</v>
       </c>
-      <c r="K32" s="17">
+      <c r="S32" s="17">
         <v>-43789</v>
       </c>
-      <c r="L32" s="17">
+      <c r="T32" s="17">
         <v>-40620</v>
       </c>
-      <c r="M32" s="17">
-        <v>-58596</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="17">
+        <v>-58991</v>
+      </c>
+      <c r="V32" s="17">
+        <v>-120721</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-90023</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-60</v>
+      </c>
+      <c r="E33" s="19">
+        <v>86142</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-28303</v>
+      </c>
+      <c r="G33" s="19">
+        <v>12971</v>
+      </c>
+      <c r="H33" s="19">
+        <v>81901</v>
+      </c>
+      <c r="I33" s="19">
+        <v>83168</v>
+      </c>
+      <c r="J33" s="19">
+        <v>11374</v>
+      </c>
+      <c r="K33" s="19">
+        <v>57810</v>
+      </c>
+      <c r="L33" s="19">
         <v>-81172</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>45881</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>30774</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>-29743</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>280883</v>
       </c>
-      <c r="I33" s="19">
+      <c r="Q33" s="19">
         <v>-438284</v>
       </c>
-      <c r="J33" s="19">
+      <c r="R33" s="19">
         <v>93785</v>
       </c>
-      <c r="K33" s="19">
+      <c r="S33" s="19">
         <v>486907</v>
       </c>
-      <c r="L33" s="19">
+      <c r="T33" s="19">
         <v>-944906</v>
       </c>
-      <c r="M33" s="19">
+      <c r="U33" s="19">
         <v>897591</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>789193</v>
+      </c>
+      <c r="W33" s="19">
+        <v>-142352</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1733,10 +2588,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1761,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="L35" s="15">
         <v>0</v>
@@ -1769,46 +2634,106 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1841,10 +2766,40 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1877,118 +2832,238 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
         <v>0</v>
       </c>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>118900</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>63363</v>
       </c>
       <c r="H39" s="15">
         <v>0</v>
       </c>
       <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>86520</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
         <v>499993</v>
       </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
         <v>176225</v>
       </c>
-      <c r="L39" s="15">
+      <c r="T39" s="15">
         <v>900000</v>
       </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>450695</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-28365</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-24498</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-51057</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-55315</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-51256</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-53596</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-25385</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-3452</v>
+      </c>
+      <c r="L40" s="11">
         <v>-6877</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>-9915</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>-10215</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>-10525</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>-10843</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>-11172</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>-128797</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>-161091</v>
       </c>
-      <c r="L40" s="11">
+      <c r="T40" s="11">
         <v>-243520</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>-391735</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>-269459</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-282159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-4877</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-2618</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-5758</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-6063</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-6503</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-4162</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-1714</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-295</v>
+      </c>
+      <c r="L41" s="15">
         <v>-1339</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-2411</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>-2110</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>-1800</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>-1482</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>-1153</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>-20438</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>-20311</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>-27835</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>-39682</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>-25049</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-22265</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2021,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2057,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2093,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2129,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2165,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2201,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2237,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2273,226 +3558,436 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-40</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-55795</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-5</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-16884</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-5</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-54672</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-65</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-21</v>
+      </c>
+      <c r="L50" s="11">
         <v>-7</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-52422</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>-35</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>-13</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-95993</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-124663</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>-95</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>-1916</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>-191374</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>-252702</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>-171</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-276315</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-33282</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-98911</v>
+      </c>
+      <c r="F51" s="17">
+        <v>62080</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-14899</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-57764</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-112430</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-27164</v>
+      </c>
+      <c r="K51" s="17">
+        <v>83316</v>
+      </c>
+      <c r="L51" s="17">
         <v>-8223</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>-64748</v>
       </c>
-      <c r="F51" s="17">
+      <c r="N51" s="17">
         <v>-12360</v>
       </c>
-      <c r="G51" s="17">
+      <c r="O51" s="17">
         <v>-12338</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>-108318</v>
       </c>
-      <c r="I51" s="17">
+      <c r="Q51" s="17">
         <v>363005</v>
       </c>
-      <c r="J51" s="17">
+      <c r="R51" s="17">
         <v>-149330</v>
       </c>
-      <c r="K51" s="17">
+      <c r="S51" s="17">
         <v>-7093</v>
       </c>
-      <c r="L51" s="17">
+      <c r="T51" s="17">
         <v>437271</v>
       </c>
-      <c r="M51" s="17">
+      <c r="U51" s="17">
         <v>-684119</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V51" s="17">
+        <v>-294679</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-130044</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-33342</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-12769</v>
+      </c>
+      <c r="F52" s="19">
+        <v>33777</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-1928</v>
+      </c>
+      <c r="H52" s="19">
+        <v>24137</v>
+      </c>
+      <c r="I52" s="19">
+        <v>-29262</v>
+      </c>
+      <c r="J52" s="19">
+        <v>-15790</v>
+      </c>
+      <c r="K52" s="19">
+        <v>141126</v>
+      </c>
+      <c r="L52" s="19">
         <v>-89395</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>-18867</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>18414</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>-42081</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>172565</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>-75279</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>-55545</v>
       </c>
-      <c r="K52" s="19">
+      <c r="S52" s="19">
         <v>479814</v>
       </c>
-      <c r="L52" s="19">
+      <c r="T52" s="19">
         <v>-507635</v>
       </c>
-      <c r="M52" s="19">
+      <c r="U52" s="19">
         <v>213472</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V52" s="19">
+        <v>494514</v>
+      </c>
+      <c r="W52" s="19">
+        <v>-272396</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>52717</v>
+      </c>
+      <c r="E53" s="15">
+        <v>19198</v>
+      </c>
+      <c r="F53" s="15">
+        <v>6518</v>
+      </c>
+      <c r="G53" s="15">
+        <v>40295</v>
+      </c>
+      <c r="H53" s="15">
+        <v>38360</v>
+      </c>
+      <c r="I53" s="15">
+        <v>62497</v>
+      </c>
+      <c r="J53" s="15">
+        <v>33475</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
         <v>158815</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>69417</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>50630</v>
       </c>
-      <c r="G53" s="15">
+      <c r="O53" s="15">
         <v>69044</v>
       </c>
-      <c r="H53" s="15">
+      <c r="P53" s="15">
         <v>27220</v>
       </c>
-      <c r="I53" s="15">
+      <c r="Q53" s="15">
         <v>199788</v>
       </c>
-      <c r="J53" s="15">
+      <c r="R53" s="15">
         <v>124711</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>69166</v>
       </c>
-      <c r="L53" s="15">
+      <c r="T53" s="15">
         <v>548992</v>
       </c>
-      <c r="M53" s="15">
+      <c r="U53" s="15">
         <v>41389</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>255126</v>
+      </c>
+      <c r="W53" s="15">
+        <v>749640</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-177</v>
+      </c>
+      <c r="E54" s="11">
+        <v>89</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-7</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>240</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>4</v>
+      </c>
+      <c r="L54" s="11">
         <v>-3</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>80</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
         <v>257</v>
       </c>
-      <c r="H54" s="11">
+      <c r="P54" s="11">
         <v>3</v>
       </c>
-      <c r="I54" s="11">
+      <c r="Q54" s="11">
         <v>202</v>
       </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
         <v>12</v>
       </c>
-      <c r="L54" s="11">
+      <c r="T54" s="11">
         <v>32</v>
       </c>
-      <c r="M54" s="11">
+      <c r="U54" s="11">
         <v>265</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>19198</v>
+      </c>
+      <c r="E55" s="17">
+        <v>6518</v>
+      </c>
+      <c r="F55" s="17">
+        <v>40295</v>
+      </c>
+      <c r="G55" s="17">
+        <v>38360</v>
+      </c>
+      <c r="H55" s="17">
+        <v>62497</v>
+      </c>
+      <c r="I55" s="17">
+        <v>33475</v>
+      </c>
+      <c r="J55" s="17">
+        <v>17685</v>
+      </c>
+      <c r="K55" s="17">
+        <v>158815</v>
+      </c>
+      <c r="L55" s="17">
         <v>69417</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>50630</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>69044</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>27220</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>199788</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>124711</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>69166</v>
       </c>
-      <c r="K55" s="17">
+      <c r="S55" s="17">
         <v>548992</v>
       </c>
-      <c r="L55" s="17">
+      <c r="T55" s="17">
         <v>41389</v>
       </c>
-      <c r="M55" s="17">
+      <c r="U55" s="17">
         <v>255126</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V55" s="17">
+        <v>749640</v>
+      </c>
+      <c r="W55" s="17">
+        <v>477234</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -2525,8 +4020,38 @@
       <c r="M56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2539,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
